--- a/public/template/specialtrans.xlsx
+++ b/public/template/specialtrans.xlsx
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>页面名称</t>
   </si>
@@ -128,6 +128,14 @@
   </si>
   <si>
     <t>（页面URL必须是系统中已存在的url,并严格相等，数据不可以是公式）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>病种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室(名称必须后台存在)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -268,7 +276,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -306,6 +314,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -604,20 +615,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="47.25" customWidth="1"/>
-    <col min="11" max="11" width="75.25" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="67" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="24.75" customHeight="1">
+    <row r="1" spans="1:13" ht="24.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -648,11 +661,17 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M1" s="12" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>10</v>
       </c>
@@ -684,7 +703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="9" customFormat="1" ht="14.25" customHeight="1">
+    <row r="3" spans="1:13" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>12</v>
       </c>
@@ -716,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" ht="14.25" customHeight="1">
+    <row r="4" spans="1:13" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>14</v>
       </c>
@@ -748,7 +767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>16</v>
       </c>
@@ -780,7 +799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="9" customFormat="1" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" s="9" customFormat="1" ht="13.5" customHeight="1">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -812,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="7" t="s">
         <v>20</v>
       </c>
@@ -844,7 +863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="9" customFormat="1" ht="16.5" customHeight="1">
+    <row r="8" spans="1:13" s="9" customFormat="1" ht="16.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
@@ -876,7 +895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" ht="14.25" customHeight="1">
+    <row r="9" spans="1:13" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>22</v>
       </c>
@@ -908,7 +927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:13" s="9" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -940,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="9" customFormat="1" ht="12.75" customHeight="1">
+    <row r="11" spans="1:13" s="9" customFormat="1" ht="12.75" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>26</v>
       </c>
@@ -972,7 +991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="9" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="7" t="s">
         <v>28</v>
       </c>
@@ -1007,17 +1026,17 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B12" r:id="rId10"/>
-    <hyperlink ref="B11" r:id="rId11"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
+    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="B6" r:id="rId4"/>
+    <hyperlink ref="B7" r:id="rId5"/>
+    <hyperlink ref="B8" r:id="rId6"/>
+    <hyperlink ref="B9" r:id="rId7"/>
+    <hyperlink ref="B10" r:id="rId8"/>
+    <hyperlink ref="B12" r:id="rId9"/>
+    <hyperlink ref="B11" r:id="rId10"/>
+    <hyperlink ref="B2" r:id="rId11" display="http://wap.zx.82112525.com/special/js/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId12"/>

--- a/public/template/specialtrans.xlsx
+++ b/public/template/specialtrans.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="3690" yWindow="585" windowWidth="19200" windowHeight="11640"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>页面名称</t>
   </si>
@@ -136,6 +136,26 @@
   </si>
   <si>
     <t>科室(名称必须后台存在)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰指甲科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰指甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲沟炎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脚气</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +244,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFCCFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,32 +312,32 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -327,6 +347,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -618,7 +643,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -631,7 +656,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.75" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -661,366 +686,432 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="11">
         <v>1042.26</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="11">
         <v>178</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="11">
         <v>2941</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="11">
         <v>80</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="11">
         <v>1</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="11">
+        <v>0</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:13" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="11">
         <v>68.959999999999994</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="11">
         <v>9</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="11">
         <v>130</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="11">
         <v>5</v>
       </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0</v>
+      <c r="G3" s="11">
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:13" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="11">
         <v>179.2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="11">
         <v>31</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="11">
         <v>592</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="11">
         <v>21</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="11">
         <v>1</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="11">
         <v>1</v>
       </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
+      <c r="I4" s="11">
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <v>0</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="11">
         <v>547.98</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="11">
         <v>87</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="11">
         <v>2073</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="11">
         <v>57</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="11">
         <v>3</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="11">
         <v>3</v>
       </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0</v>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <v>0</v>
+      </c>
+      <c r="K5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="9" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:13" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0</v>
+      </c>
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <v>0</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="11">
         <v>734.28</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="11">
         <v>139</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="11">
         <v>3194</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="11">
         <v>51</v>
       </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>0</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>0</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="9" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
+      <c r="C8" s="11">
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="11">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
         <v>2</v>
       </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
+      <c r="G8" s="11">
+        <v>0</v>
+      </c>
+      <c r="H8" s="11">
+        <v>0</v>
+      </c>
+      <c r="I8" s="11">
+        <v>0</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:13" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="11">
         <v>20.93</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="11">
         <v>5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="11">
         <v>174</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="11">
         <v>1</v>
       </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0</v>
+      </c>
+      <c r="I9" s="11">
+        <v>0</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="9" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:13" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="11">
         <v>190.84</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="11">
         <v>46</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="11">
         <v>1021</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="11">
         <v>32</v>
       </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
+      <c r="G10" s="11">
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <v>0</v>
+      </c>
+      <c r="I10" s="11">
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="9" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:13" s="6" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="9" customFormat="1" ht="15" customHeight="1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:13" s="6" customFormat="1" ht="15" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>0</v>
+      <c r="C12" s="11">
+        <v>0</v>
+      </c>
+      <c r="D12" s="11">
+        <v>0</v>
+      </c>
+      <c r="E12" s="11">
+        <v>0</v>
+      </c>
+      <c r="F12" s="11">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <v>0</v>
+      </c>
+      <c r="I12" s="11">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
